--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,6 +466,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -631,7 +634,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -670,7 +673,7 @@
     <t>budgetLetter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -687,7 +690,7 @@
     <t>equipmentField</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-field}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-field|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -705,7 +708,7 @@
     <t>activityField</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-field}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-field|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -722,7 +725,7 @@
     <t>external</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-external}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-external|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -740,7 +743,7 @@
     <t>accomodationSpace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-number-of-theorical-accomadation-space}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-number-of-theorical-accomadation-space|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -758,7 +761,7 @@
     <t>applicantAct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-applicant-act}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-applicant-act|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -775,7 +778,7 @@
     <t>executantAct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executant}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executant|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -793,7 +796,7 @@
     <t>analysisSection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-analysis-section}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-analysis-section|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -810,7 +813,7 @@
     <t>activityType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-type}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-type|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -906,7 +909,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -934,7 +937,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1105,7 +1108,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1232,7 +1235,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1717,7 +1720,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1732,7 +1735,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.9296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2940,7 +2943,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3008,10 +3011,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3034,16 +3037,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3069,13 +3072,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3093,7 +3096,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3122,10 +3125,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3148,16 +3151,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3183,13 +3186,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3207,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3236,10 +3239,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3265,13 +3268,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3321,7 +3324,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3350,10 +3353,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3376,16 +3379,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3411,13 +3414,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3435,7 +3438,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3464,14 +3467,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3490,16 +3493,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3549,7 +3552,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3567,7 +3570,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3578,14 +3581,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3604,16 +3607,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3663,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3681,7 +3684,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3721,10 +3724,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3773,7 +3776,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3802,13 +3805,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3830,13 +3833,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3887,7 +3890,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3896,7 +3899,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3916,13 +3919,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3944,13 +3947,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4001,7 +4004,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4010,7 +4013,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4030,13 +4033,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4058,13 +4061,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4115,7 +4118,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4124,7 +4127,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
@@ -4144,13 +4147,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4172,13 +4175,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4229,7 +4232,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4238,7 +4241,7 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>117</v>
@@ -4258,13 +4261,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4286,13 +4289,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4343,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4352,7 +4355,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>117</v>
@@ -4372,13 +4375,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
@@ -4400,13 +4403,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4457,7 +4460,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4466,7 +4469,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>117</v>
@@ -4486,13 +4489,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -4514,13 +4517,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4571,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4580,7 +4583,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
@@ -4600,13 +4603,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -4628,13 +4631,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4685,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4694,7 +4697,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>117</v>
@@ -4714,13 +4717,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4742,13 +4745,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4799,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4808,7 +4811,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>117</v>
@@ -4828,13 +4831,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
@@ -4856,13 +4859,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4913,7 +4916,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4922,7 +4925,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>117</v>
@@ -4942,13 +4945,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
@@ -4970,13 +4973,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5027,7 +5030,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5036,7 +5039,7 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>117</v>
@@ -5056,13 +5059,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>78</v>
@@ -5084,13 +5087,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5141,7 +5144,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5170,10 +5173,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5199,16 +5202,16 @@
         <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5257,7 +5260,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5275,7 +5278,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5286,10 +5289,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5312,17 +5315,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5371,7 +5374,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5380,30 +5383,30 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5512,10 +5515,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5626,10 +5629,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5652,19 +5655,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5689,11 +5692,11 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5711,7 +5714,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5726,10 +5729,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5766,19 +5769,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5803,11 +5806,11 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5825,7 +5828,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5840,10 +5843,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5854,10 +5857,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5883,16 +5886,16 @@
         <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5905,7 +5908,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -5941,7 +5944,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5956,13 +5959,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5999,13 +6002,13 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6019,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6055,7 +6058,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6070,13 +6073,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6084,10 +6087,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6110,13 +6113,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6167,7 +6170,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6182,13 +6185,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6199,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6222,16 +6225,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6281,7 +6284,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6296,13 +6299,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6310,10 +6313,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6336,70 +6339,70 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6414,24 +6417,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6454,19 +6457,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6491,11 +6494,11 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6513,7 +6516,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6528,24 +6531,24 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6571,16 +6574,16 @@
         <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6629,7 +6632,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6638,19 +6641,19 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6658,10 +6661,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6687,16 +6690,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6745,7 +6748,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6763,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6774,10 +6777,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6800,19 +6803,19 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6864,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6870,19 +6873,19 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6890,10 +6893,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6916,19 +6919,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6977,7 +6980,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6986,19 +6989,19 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7006,10 +7009,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7032,17 +7035,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7091,7 +7094,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7106,10 +7109,10 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>106</v>
@@ -7120,10 +7123,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7146,19 +7149,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7207,7 +7210,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7225,7 +7228,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7236,10 +7239,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7348,10 +7351,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7462,14 +7465,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7491,16 +7494,16 @@
         <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7549,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7567,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7578,10 +7581,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7604,17 +7607,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7639,13 +7642,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7663,7 +7666,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7681,7 +7684,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7692,10 +7695,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7718,17 +7721,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7777,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7792,10 +7795,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7806,10 +7809,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7832,17 +7835,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7891,7 +7894,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7906,10 +7909,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7920,10 +7923,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7946,17 +7949,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8005,7 +8008,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8020,10 +8023,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8034,10 +8037,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8060,17 +8063,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8119,7 +8122,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
